--- a/slide5_7/data/Вихідні данні слайд5_7.xlsx
+++ b/slide5_7/data/Вихідні данні слайд5_7.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\o.lukasevych\Documents\Python_Scripts\Ukr_budget\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\o.lukasevych\Documents\Python_Scripts\Ukr_budget\slide5_7\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="таблиця_слайд5_оновлена" sheetId="6" r:id="rId1"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,25 +1062,25 @@
         <v>7383.00882</v>
       </c>
       <c r="E6" s="57">
-        <v>7574</v>
+        <v>7794.7987389999998</v>
       </c>
       <c r="F6" s="57">
-        <v>7911</v>
+        <v>8184.4374600000001</v>
       </c>
       <c r="G6" s="57">
-        <v>8218</v>
+        <v>8548.4874</v>
       </c>
       <c r="H6" s="57">
-        <v>8494</v>
+        <v>8887.5242129999988</v>
       </c>
       <c r="I6" s="57">
-        <v>8752</v>
+        <v>9198.847240000001</v>
       </c>
       <c r="J6" s="57">
-        <v>8961</v>
+        <v>9481.8032739999999</v>
       </c>
       <c r="K6" s="57">
-        <v>9148</v>
+        <v>9735.0339899999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1095,31 +1095,31 @@
       </c>
       <c r="E7" s="55">
         <f t="shared" ref="E7:K7" si="0">((E6-D6)/5)/D6*100</f>
-        <v>0.5173803381694998</v>
+        <v>1.1155070487915248</v>
       </c>
       <c r="F7" s="55">
         <f t="shared" si="0"/>
-        <v>0.8898864536572485</v>
+        <v>0.99974029874692394</v>
       </c>
       <c r="G7" s="55">
         <f t="shared" si="0"/>
-        <v>0.77613449627101505</v>
+        <v>0.88961505730657719</v>
       </c>
       <c r="H7" s="55">
         <f t="shared" si="0"/>
-        <v>0.67169627646629348</v>
+        <v>0.79320889681605855</v>
       </c>
       <c r="I7" s="55">
         <f t="shared" si="0"/>
-        <v>0.60748763833294084</v>
+        <v>0.70058436869206475</v>
       </c>
       <c r="J7" s="55">
         <f t="shared" si="0"/>
-        <v>0.47760511882998169</v>
+        <v>0.61519889746532819</v>
       </c>
       <c r="K7" s="55">
         <f t="shared" si="0"/>
-        <v>0.41736413346724688</v>
+        <v>0.53414041334180085</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1134,31 +1134,31 @@
       </c>
       <c r="E8" s="56">
         <f t="shared" ref="E8:K8" si="1">E6*E9</f>
-        <v>96222.905936185765</v>
+        <v>99028.015032254611</v>
       </c>
       <c r="F8" s="56">
         <f t="shared" si="1"/>
-        <v>125630.34870299142</v>
+        <v>129972.66237360958</v>
       </c>
       <c r="G8" s="56">
         <f t="shared" si="1"/>
-        <v>163132.06384167352</v>
+        <v>169692.43030987366</v>
       </c>
       <c r="H8" s="56">
         <f t="shared" si="1"/>
-        <v>210763.52979301152</v>
+        <v>220528.13447760025</v>
       </c>
       <c r="I8" s="56">
         <f t="shared" si="1"/>
-        <v>271456.67717630632</v>
+        <v>285316.32833898958</v>
       </c>
       <c r="J8" s="56">
         <f t="shared" si="1"/>
-        <v>347423.91513038176</v>
+        <v>367615.80358767457</v>
       </c>
       <c r="K8" s="56">
         <f t="shared" si="1"/>
-        <v>443342.53649323911</v>
+        <v>471792.15806454944</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1277,31 +1277,31 @@
       </c>
       <c r="E12" s="19">
         <f t="shared" ref="E12:K12" si="3">E11/E6*100</f>
-        <v>0.55387636171984034</v>
+        <v>0.53818702754655834</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="3"/>
-        <v>0.51984140174826676</v>
+        <v>0.50247379240534129</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" si="3"/>
-        <v>0.4898248570667893</v>
+        <v>0.47088806323500865</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="3"/>
-        <v>0.46328235070095086</v>
+        <v>0.44276900884251652</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="3"/>
-        <v>0.4383135698093969</v>
+        <v>0.4170218575095983</v>
       </c>
       <c r="J12" s="19">
         <f t="shared" si="3"/>
-        <v>0.41624383703965251</v>
+        <v>0.39338097574121067</v>
       </c>
       <c r="K12" s="19">
         <f t="shared" si="3"/>
-        <v>0.39601927481097282</v>
+        <v>0.37213884714651929</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
   <dimension ref="B3:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,25 +2120,25 @@
         <v>7383.00882</v>
       </c>
       <c r="E6" s="57">
-        <v>7574</v>
+        <v>7794.7987389999998</v>
       </c>
       <c r="F6" s="57">
-        <v>7911</v>
+        <v>8184.4374600000001</v>
       </c>
       <c r="G6" s="57">
-        <v>8218</v>
+        <v>8548.4874</v>
       </c>
       <c r="H6" s="57">
-        <v>8494</v>
+        <v>8887.5242129999988</v>
       </c>
       <c r="I6" s="57">
-        <v>8752</v>
+        <v>9198.847240000001</v>
       </c>
       <c r="J6" s="57">
-        <v>8961</v>
+        <v>9481.8032739999999</v>
       </c>
       <c r="K6" s="57">
-        <v>9148</v>
+        <v>9735.0339899999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -2153,31 +2153,31 @@
       </c>
       <c r="E7" s="55">
         <f t="shared" ref="E7:K7" si="0">((E6-D6)/5)/D6*100</f>
-        <v>0.5173803381694998</v>
+        <v>1.1155070487915248</v>
       </c>
       <c r="F7" s="55">
         <f t="shared" si="0"/>
-        <v>0.8898864536572485</v>
+        <v>0.99974029874692394</v>
       </c>
       <c r="G7" s="55">
         <f t="shared" si="0"/>
-        <v>0.77613449627101505</v>
+        <v>0.88961505730657719</v>
       </c>
       <c r="H7" s="55">
         <f t="shared" si="0"/>
-        <v>0.67169627646629348</v>
+        <v>0.79320889681605855</v>
       </c>
       <c r="I7" s="55">
         <f t="shared" si="0"/>
-        <v>0.60748763833294084</v>
+        <v>0.70058436869206475</v>
       </c>
       <c r="J7" s="55">
         <f t="shared" si="0"/>
-        <v>0.47760511882998169</v>
+        <v>0.61519889746532819</v>
       </c>
       <c r="K7" s="55">
         <f t="shared" si="0"/>
-        <v>0.41736413346724688</v>
+        <v>0.53414041334180085</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -2192,31 +2192,31 @@
       </c>
       <c r="E8" s="56">
         <f t="shared" ref="E8:K8" si="1">E6*E9</f>
-        <v>96222.905936185765</v>
+        <v>99028.015032254611</v>
       </c>
       <c r="F8" s="56">
         <f t="shared" si="1"/>
-        <v>125630.34870299142</v>
+        <v>129972.66237360958</v>
       </c>
       <c r="G8" s="56">
         <f t="shared" si="1"/>
-        <v>163132.06384167352</v>
+        <v>169692.43030987366</v>
       </c>
       <c r="H8" s="56">
         <f t="shared" si="1"/>
-        <v>210763.52979301152</v>
+        <v>220528.13447760025</v>
       </c>
       <c r="I8" s="56">
         <f t="shared" si="1"/>
-        <v>271456.67717630632</v>
+        <v>285316.32833898958</v>
       </c>
       <c r="J8" s="56">
         <f t="shared" si="1"/>
-        <v>347423.91513038176</v>
+        <v>367615.80358767457</v>
       </c>
       <c r="K8" s="56">
         <f t="shared" si="1"/>
-        <v>443342.53649323911</v>
+        <v>471792.15806454944</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -2302,25 +2302,25 @@
         <v>42.929298000000003</v>
       </c>
       <c r="E11" s="53">
-        <v>42.455336099064368</v>
+        <v>41.971170681357748</v>
       </c>
       <c r="F11" s="53">
-        <v>43.959242398731128</v>
+        <v>42.499242935581918</v>
       </c>
       <c r="G11" s="53">
-        <v>45.27055946680445</v>
+        <v>43.855962599610322</v>
       </c>
       <c r="H11" s="53">
-        <v>46.295979439488711</v>
+        <v>44.964880749176139</v>
       </c>
       <c r="I11" s="53">
-        <v>46.981876100906383</v>
+        <v>45.663071790609031</v>
       </c>
       <c r="J11" s="53">
-        <v>47.770186779919833</v>
+        <v>46.220742281419369</v>
       </c>
       <c r="K11" s="53">
-        <v>48.872157587926068</v>
+        <v>47.06500360827404</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -2335,31 +2335,31 @@
       </c>
       <c r="E12" s="19">
         <f t="shared" ref="E12:K12" si="3">E11/E6*100</f>
-        <v>0.56054048189945038</v>
+        <v>0.53845098618597897</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="3"/>
-        <v>0.55567238527027085</v>
+        <v>0.51926895578699828</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" si="3"/>
-        <v>0.55087076498910259</v>
+        <v>0.51302599568211704</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="3"/>
-        <v>0.54504331810087958</v>
+        <v>0.505932582252827</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="3"/>
-        <v>0.53681302674710218</v>
+        <v>0.49639993576639752</v>
       </c>
       <c r="J12" s="19">
         <f t="shared" si="3"/>
-        <v>0.53308990938421863</v>
+        <v>0.48746784705142548</v>
       </c>
       <c r="K12" s="19">
         <f t="shared" si="3"/>
-        <v>0.53423871434112447</v>
+        <v>0.48346008505589244</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2374,31 +2374,31 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" ref="E13:K13" si="4">E11*E14</f>
-        <v>140.2357685644111</v>
+        <v>138.63650412080932</v>
       </c>
       <c r="F13" s="48">
         <f t="shared" si="4"/>
-        <v>195.46608347315595</v>
+        <v>188.97415228048092</v>
       </c>
       <c r="G13" s="48">
         <f t="shared" si="4"/>
-        <v>260.60758592787005</v>
+        <v>252.46422125637946</v>
       </c>
       <c r="H13" s="48">
         <f t="shared" si="4"/>
-        <v>344.62576083910972</v>
+        <v>334.71710560695294</v>
       </c>
       <c r="I13" s="48">
         <f t="shared" si="4"/>
-        <v>451.73658956774443</v>
+        <v>439.05612188779423</v>
       </c>
       <c r="J13" s="48">
         <f t="shared" si="4"/>
-        <v>592.66618699125013</v>
+        <v>573.44282981428285</v>
       </c>
       <c r="K13" s="48">
         <f t="shared" si="4"/>
-        <v>757.92238946841962</v>
+        <v>729.8965659730884</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -2486,31 +2486,31 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" ref="E16:K16" si="6">E11*E17/100</f>
-        <v>29.25172657225535</v>
+        <v>28.918136599455494</v>
       </c>
       <c r="F16" s="48">
         <f t="shared" si="6"/>
-        <v>30.859388163909252</v>
+        <v>29.834468540778506</v>
       </c>
       <c r="G16" s="48">
         <f t="shared" si="6"/>
-        <v>31.915744424097138</v>
+        <v>30.918453632725278</v>
       </c>
       <c r="H16" s="48">
         <f t="shared" si="6"/>
-        <v>32.777553443158006</v>
+        <v>31.835135570416707</v>
       </c>
       <c r="I16" s="48">
         <f t="shared" si="6"/>
-        <v>33.404113907744438</v>
+        <v>32.466444043123019</v>
       </c>
       <c r="J16" s="48">
         <f t="shared" si="6"/>
-        <v>34.10791336086276</v>
+        <v>33.001609988933431</v>
       </c>
       <c r="K16" s="48">
         <f t="shared" si="6"/>
-        <v>35.041336990542987</v>
+        <v>33.74560758713249</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -2590,31 +2590,31 @@
       </c>
       <c r="E19" s="45">
         <f t="shared" ref="E19:K19" si="7">E18/E11*100</f>
-        <v>0.14465083931193612</v>
+        <v>0.146319483119105</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" si="7"/>
-        <v>0.13970213463408696</v>
+        <v>0.14450139757332861</v>
       </c>
       <c r="G19" s="45">
         <f t="shared" si="7"/>
-        <v>0.1356554916115662</v>
+        <v>0.14003112999860517</v>
       </c>
       <c r="H19" s="45">
         <f t="shared" si="7"/>
-        <v>0.13265082787646545</v>
+        <v>0.13657770014462944</v>
       </c>
       <c r="I19" s="45">
         <f t="shared" si="7"/>
-        <v>0.13071423514059122</v>
+        <v>0.13448941911225049</v>
       </c>
       <c r="J19" s="45">
         <f t="shared" si="7"/>
-        <v>0.1285571695227587</v>
+        <v>0.1328667541210983</v>
       </c>
       <c r="K19" s="45">
         <f t="shared" si="7"/>
-        <v>0.12565845878507301</v>
+        <v>0.1304833640535486</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
@@ -2629,25 +2629,25 @@
         <v>9.826098</v>
       </c>
       <c r="E20" s="40">
-        <v>9.2481428932584802</v>
+        <v>9.2481625764480135</v>
       </c>
       <c r="F20" s="39">
-        <v>8.6677892783371817</v>
+        <v>8.6680173540732302</v>
       </c>
       <c r="G20" s="39">
-        <v>8.2406358933610502</v>
+        <v>8.2405513559399388</v>
       </c>
       <c r="H20" s="39">
-        <v>7.6251265367185521</v>
+        <v>7.6241887400487842</v>
       </c>
       <c r="I20" s="39">
-        <v>7.4811628965389643</v>
+        <v>6.9587130904961709</v>
       </c>
       <c r="J20" s="39">
-        <v>8.1758600151545124</v>
+        <v>7.4181890902340868</v>
       </c>
       <c r="K20" s="39">
-        <v>9.0668570099473076</v>
+        <v>8.3085013343949807</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -2662,31 +2662,31 @@
       </c>
       <c r="E21" s="36">
         <f t="shared" ref="E21:K21" si="8">E20/E11*100</f>
-        <v>21.783228547947573</v>
+        <v>22.034559499565621</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="8"/>
-        <v>19.717785851985873</v>
+        <v>20.395698265053213</v>
       </c>
       <c r="G21" s="36">
         <f t="shared" si="8"/>
-        <v>18.203079419426356</v>
+        <v>18.790036445382139</v>
       </c>
       <c r="H21" s="36">
         <f t="shared" si="8"/>
-        <v>16.470386044397216</v>
+        <v>16.955874480304225</v>
       </c>
       <c r="I21" s="36">
         <f t="shared" si="8"/>
-        <v>15.923508206592535</v>
+        <v>15.239257495434821</v>
       </c>
       <c r="J21" s="36">
         <f t="shared" si="8"/>
-        <v>17.114984399833308</v>
+        <v>16.049480653226507</v>
       </c>
       <c r="K21" s="36">
         <f t="shared" si="8"/>
-        <v>18.552193022448606</v>
+        <v>17.653246993344212</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -2701,25 +2701,25 @@
         <v>7.6147039999999997</v>
       </c>
       <c r="E22" s="33">
-        <v>8.1155719495587544</v>
+        <v>7.6288830578572009</v>
       </c>
       <c r="F22" s="33">
-        <v>10.2320533808679</v>
+        <v>8.709485748627003</v>
       </c>
       <c r="G22" s="33">
-        <v>11.887749285625389</v>
+        <v>10.322760225744601</v>
       </c>
       <c r="H22" s="33">
-        <v>13.440129792878739</v>
+        <v>11.875566293494691</v>
       </c>
       <c r="I22" s="33">
-        <v>13.7714934237974</v>
+        <v>13.22014171473883</v>
       </c>
       <c r="J22" s="33">
-        <v>13.28058252531004</v>
+        <v>12.89964501730967</v>
       </c>
       <c r="K22" s="33">
-        <v>13.37283768532906</v>
+        <v>12.633986745350679</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -2734,31 +2734,31 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" ref="E23:K23" si="9">E22/E11*100</f>
-        <v>19.115552237349043</v>
+        <v>18.176483843577198</v>
       </c>
       <c r="F23" s="27">
         <f t="shared" si="9"/>
-        <v>23.276227756744156</v>
+        <v>20.493272696241615</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" si="9"/>
-        <v>26.259338134184802</v>
+        <v>23.537871737049326</v>
       </c>
       <c r="H23" s="27">
         <f t="shared" si="9"/>
-        <v>29.030879043061823</v>
+        <v>26.410759009323691</v>
       </c>
       <c r="I23" s="27">
         <f t="shared" si="9"/>
-        <v>29.312353117230494</v>
+        <v>28.951494492881785</v>
       </c>
       <c r="J23" s="27">
         <f t="shared" si="9"/>
-        <v>27.800985134294105</v>
+        <v>27.908779436662783</v>
       </c>
       <c r="K23" s="27">
         <f t="shared" si="9"/>
-        <v>27.362896064635457</v>
+        <v>26.843696540436728</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -2774,31 +2774,31 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" ref="E24:K24" si="10">E22/E20</f>
-        <v>0.87753531095142101</v>
+        <v>0.82490797439973884</v>
       </c>
       <c r="F24" s="27">
         <f t="shared" si="10"/>
-        <v>1.1804686353462903</v>
+        <v>1.0047840691659766</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" si="10"/>
-        <v>1.4425766942576099</v>
+        <v>1.2526783439440332</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="10"/>
-        <v>1.7626107223477834</v>
+        <v>1.5576170394515578</v>
       </c>
       <c r="I24" s="27">
         <f t="shared" si="10"/>
-        <v>1.8408225585047149</v>
+        <v>1.8997969226226865</v>
       </c>
       <c r="J24" s="27">
         <f t="shared" si="10"/>
-        <v>1.6243652044792325</v>
+        <v>1.7389210305102389</v>
       </c>
       <c r="K24" s="27">
         <f t="shared" si="10"/>
-        <v>1.4749143689657433</v>
+        <v>1.5206095825066961</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -2814,31 +2814,31 @@
       </c>
       <c r="E25" s="29">
         <f t="shared" ref="E25:K25" si="11">E20*E26/1000*0.9938</f>
-        <v>0.64335630851241943</v>
+        <v>0.3676329587389614</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" si="11"/>
-        <v>0.81833465355709167</v>
+        <v>0.73221342995062788</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="11"/>
-        <v>0.77800667532811019</v>
+        <v>0.77799869406564559</v>
       </c>
       <c r="H25" s="29">
         <f t="shared" si="11"/>
-        <v>0.71989582145813513</v>
+        <v>0.7198072831367458</v>
       </c>
       <c r="I25" s="29">
         <f t="shared" si="11"/>
-        <v>0.70630407022514008</v>
+        <v>0.65697906158683395</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="11"/>
-        <v>0.77189111989075265</v>
+        <v>0.70035865019809029</v>
       </c>
       <c r="K25" s="29">
         <f t="shared" si="11"/>
-        <v>0.85601103716613525</v>
+        <v>0.78441391948156458</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -2853,10 +2853,10 @@
         <v>41.906868830333259</v>
       </c>
       <c r="E26" s="26">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F26" s="26">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G26" s="26">
         <v>95</v>
@@ -2886,25 +2886,25 @@
         <v>16.555828999999999</v>
       </c>
       <c r="E27" s="60">
-        <v>15.638642279299241</v>
+        <v>15.639055373237159</v>
       </c>
       <c r="F27" s="60">
-        <v>14.781160738699169</v>
+        <v>14.789757565357929</v>
       </c>
       <c r="G27" s="60">
-        <v>14.65055119725225</v>
+        <v>14.66690429782285</v>
       </c>
       <c r="H27" s="60">
-        <v>14.536036153429411</v>
+        <v>14.555358340151731</v>
       </c>
       <c r="I27" s="60">
-        <v>14.79406206478674</v>
+        <v>14.25408578342447</v>
       </c>
       <c r="J27" s="60">
-        <v>14.94874618060607</v>
+        <v>14.156673300564631</v>
       </c>
       <c r="K27" s="60">
-        <v>14.524355405205331</v>
+        <v>13.73218183372849</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -2919,31 +2919,31 @@
       </c>
       <c r="E28" s="21">
         <f t="shared" ref="E28:K28" si="12">E27/E11*100</f>
-        <v>36.835516371389382</v>
+        <v>37.261422827511289</v>
       </c>
       <c r="F28" s="21">
         <f t="shared" si="12"/>
-        <v>33.624693994102643</v>
+        <v>34.800049468588071</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="12"/>
-        <v>32.362204862953071</v>
+        <v>33.443352804102332</v>
       </c>
       <c r="H28" s="21">
         <f t="shared" si="12"/>
-        <v>31.398052983043112</v>
+        <v>32.370503596672876</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="12"/>
-        <v>31.488870374210808</v>
+        <v>31.215783836855088</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="12"/>
-        <v>31.293045282564748</v>
+        <v>30.628398856882011</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="12"/>
-        <v>29.719079578335606</v>
+        <v>29.177054671072771</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2958,25 +2958,25 @@
         <v>8.7630300000000005</v>
       </c>
       <c r="E29" s="15">
-        <v>9.4529789769479002</v>
+        <v>9.4550696738153803</v>
       </c>
       <c r="F29" s="15">
-        <v>10.278239000826879</v>
+        <v>10.33198226752376</v>
       </c>
       <c r="G29" s="15">
-        <v>10.491623090565749</v>
+        <v>10.62574672010291</v>
       </c>
       <c r="H29" s="15">
-        <v>10.69468695646202</v>
+        <v>10.90976737548092</v>
       </c>
       <c r="I29" s="15">
-        <v>10.9351577157833</v>
+        <v>11.230131201949559</v>
       </c>
       <c r="J29" s="15">
-        <v>11.36499805884921</v>
+        <v>11.74623487331097</v>
       </c>
       <c r="K29" s="15">
-        <v>11.90810748744437</v>
+        <v>12.390333694799899</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -2991,31 +2991,31 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" ref="E30:K30" si="13">E29/E11*100</f>
-        <v>22.265702843314024</v>
+        <v>22.527533829345913</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="13"/>
-        <v>23.381292397167329</v>
+        <v>24.310979570117112</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="13"/>
-        <v>23.17537758343575</v>
+        <v>24.228739013466154</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="13"/>
-        <v>23.100681929497874</v>
+        <v>24.26286291369918</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="13"/>
-        <v>23.275268301966204</v>
+        <v>24.593464174828298</v>
       </c>
       <c r="J30" s="10">
         <f t="shared" si="13"/>
-        <v>23.790985183307846</v>
+        <v>25.413341053228667</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" si="13"/>
-        <v>24.365831334580335</v>
+        <v>26.326001795146308</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -3031,31 +3031,31 @@
       </c>
       <c r="E31" s="12">
         <f t="shared" ref="E31:K31" si="14">E32/1000*E11</f>
-        <v>0.61984790704633974</v>
+        <v>0.6127790919478231</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" si="14"/>
-        <v>0.64180493902147451</v>
+        <v>0.62048894685949596</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="14"/>
-        <v>0.66095016821534502</v>
+        <v>0.64029705395431069</v>
       </c>
       <c r="H31" s="12">
         <f t="shared" si="14"/>
-        <v>0.67592129981653515</v>
+        <v>0.65648725893797166</v>
       </c>
       <c r="I31" s="12">
         <f t="shared" si="14"/>
-        <v>0.6859353910732332</v>
+        <v>0.66668084814289186</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="14"/>
-        <v>0.69744472698682958</v>
+        <v>0.67482283730872283</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="14"/>
-        <v>0.71353350078372058</v>
+        <v>0.68714905268080095</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -14002,7 +14002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -14657,7 +14657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
